--- a/data_analysis/VerifyingSameUnits.xlsx
+++ b/data_analysis/VerifyingSameUnits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e5bb6c93b1a1b07/School/ICSI 431/Course Project/data_labeling/data_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac\OneDrive\Documents\OneDrive\School\ICSI 431\Course Project\data_labeling\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F826B5F7-68CC-4D90-B69B-56142E2E5965}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{F826B5F7-68CC-4D90-B69B-56142E2E5965}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F7E9665D-4A52-47EF-93C9-6A6FF17C3BB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommended_Male_Nutrient_Intak" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Age</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Biotin (μg/d)</t>
   </si>
   <si>
-    <t>Choline (mg/d)</t>
-  </si>
-  <si>
     <t>Calcium (mg/d)</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>Copper (μg/d)</t>
-  </si>
-  <si>
-    <t>Fluoride (mg/d)</t>
   </si>
   <si>
     <t>Iodine (μg/d)</t>
@@ -108,14 +102,11 @@
   <si>
     <t>Sodium (g/d)</t>
   </si>
-  <si>
-    <t>Chloride (g/d)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -963,11 +954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +994,7 @@
     <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,19 +1022,19 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1052,16 +1043,16 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -1079,23 +1070,14 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1139,52 +1121,43 @@
         <v>8</v>
       </c>
       <c r="O2">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="P2">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="R2">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="S2">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="V2">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="W2">
-        <v>1.2</v>
+        <v>460</v>
       </c>
       <c r="X2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y2">
-        <v>460</v>
+        <v>3</v>
       </c>
       <c r="Z2">
-        <v>20</v>
-      </c>
-      <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AD2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1228,52 +1201,43 @@
         <v>8</v>
       </c>
       <c r="O3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="P3">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="R3">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="S3">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="T3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="V3">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="W3">
-        <v>1.2</v>
+        <v>460</v>
       </c>
       <c r="X3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y3">
-        <v>460</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>20</v>
-      </c>
-      <c r="AA3">
         <v>3</v>
       </c>
-      <c r="AB3">
-        <v>3</v>
-      </c>
-      <c r="AD3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1317,52 +1281,43 @@
         <v>12</v>
       </c>
       <c r="O4">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="P4">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="R4">
-        <v>440</v>
+        <v>90</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="V4">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="W4">
-        <v>1.5</v>
+        <v>500</v>
       </c>
       <c r="X4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y4">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="Z4">
-        <v>30</v>
-      </c>
-      <c r="AA4">
-        <v>5</v>
-      </c>
-      <c r="AB4">
         <v>3.8</v>
       </c>
-      <c r="AD4">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1406,52 +1361,43 @@
         <v>12</v>
       </c>
       <c r="O5">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="P5">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="R5">
-        <v>440</v>
+        <v>90</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="V5">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="W5">
-        <v>1.5</v>
+        <v>500</v>
       </c>
       <c r="X5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y5">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="Z5">
-        <v>30</v>
-      </c>
-      <c r="AA5">
-        <v>5</v>
-      </c>
-      <c r="AB5">
         <v>3.8</v>
       </c>
-      <c r="AD5">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1495,52 +1441,43 @@
         <v>12</v>
       </c>
       <c r="O6">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="P6">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="R6">
-        <v>440</v>
+        <v>90</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T6">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="V6">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="W6">
-        <v>1.5</v>
+        <v>500</v>
       </c>
       <c r="X6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y6">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="Z6">
-        <v>30</v>
-      </c>
-      <c r="AA6">
-        <v>5</v>
-      </c>
-      <c r="AB6">
         <v>3.8</v>
       </c>
-      <c r="AD6">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1584,52 +1521,43 @@
         <v>12</v>
       </c>
       <c r="O7">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="P7">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="R7">
-        <v>440</v>
+        <v>90</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T7">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="V7">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="W7">
-        <v>1.5</v>
+        <v>500</v>
       </c>
       <c r="X7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y7">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="Z7">
-        <v>30</v>
-      </c>
-      <c r="AA7">
-        <v>5</v>
-      </c>
-      <c r="AB7">
         <v>3.8</v>
       </c>
-      <c r="AD7">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1673,52 +1601,43 @@
         <v>12</v>
       </c>
       <c r="O8">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="P8">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="R8">
-        <v>440</v>
+        <v>90</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="U8">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="V8">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="W8">
-        <v>1.5</v>
+        <v>500</v>
       </c>
       <c r="X8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y8">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="Z8">
-        <v>30</v>
-      </c>
-      <c r="AA8">
-        <v>5</v>
-      </c>
-      <c r="AB8">
         <v>3.8</v>
       </c>
-      <c r="AD8">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1762,52 +1681,43 @@
         <v>20</v>
       </c>
       <c r="O9">
-        <v>375</v>
+        <v>1300</v>
       </c>
       <c r="P9">
-        <v>1300</v>
+        <v>25</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="R9">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T9">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="W9">
-        <v>1.9</v>
+        <v>1250</v>
       </c>
       <c r="X9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y9">
-        <v>1250</v>
+        <v>8</v>
       </c>
       <c r="Z9">
-        <v>40</v>
-      </c>
-      <c r="AA9">
-        <v>8</v>
-      </c>
-      <c r="AB9">
         <v>4.5</v>
       </c>
-      <c r="AD9">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1851,52 +1761,43 @@
         <v>20</v>
       </c>
       <c r="O10">
-        <v>375</v>
+        <v>1300</v>
       </c>
       <c r="P10">
-        <v>1300</v>
+        <v>25</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="R10">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="U10">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="W10">
-        <v>1.9</v>
+        <v>1250</v>
       </c>
       <c r="X10">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y10">
-        <v>1250</v>
+        <v>8</v>
       </c>
       <c r="Z10">
-        <v>40</v>
-      </c>
-      <c r="AA10">
-        <v>8</v>
-      </c>
-      <c r="AB10">
         <v>4.5</v>
       </c>
-      <c r="AD10">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1940,52 +1841,43 @@
         <v>20</v>
       </c>
       <c r="O11">
-        <v>375</v>
+        <v>1300</v>
       </c>
       <c r="P11">
-        <v>1300</v>
+        <v>25</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="R11">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>1250</v>
       </c>
       <c r="X11">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y11">
-        <v>1250</v>
+        <v>8</v>
       </c>
       <c r="Z11">
-        <v>40</v>
-      </c>
-      <c r="AA11">
-        <v>8</v>
-      </c>
-      <c r="AB11">
         <v>4.5</v>
       </c>
-      <c r="AD11">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2029,52 +1921,43 @@
         <v>20</v>
       </c>
       <c r="O12">
-        <v>375</v>
+        <v>1300</v>
       </c>
       <c r="P12">
-        <v>1300</v>
+        <v>25</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="R12">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T12">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="U12">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="W12">
-        <v>1.9</v>
+        <v>1250</v>
       </c>
       <c r="X12">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y12">
-        <v>1250</v>
+        <v>8</v>
       </c>
       <c r="Z12">
-        <v>40</v>
-      </c>
-      <c r="AA12">
-        <v>8</v>
-      </c>
-      <c r="AB12">
         <v>4.5</v>
       </c>
-      <c r="AD12">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2118,52 +2001,43 @@
         <v>20</v>
       </c>
       <c r="O13">
-        <v>375</v>
+        <v>1300</v>
       </c>
       <c r="P13">
-        <v>1300</v>
+        <v>25</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>700</v>
       </c>
       <c r="R13">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T13">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="U13">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>1250</v>
       </c>
       <c r="X13">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y13">
-        <v>1250</v>
+        <v>8</v>
       </c>
       <c r="Z13">
-        <v>40</v>
-      </c>
-      <c r="AA13">
-        <v>8</v>
-      </c>
-      <c r="AB13">
         <v>4.5</v>
       </c>
-      <c r="AD13">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2207,52 +2081,43 @@
         <v>25</v>
       </c>
       <c r="O14">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="P14">
-        <v>1300</v>
+        <v>35</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>890</v>
       </c>
       <c r="R14">
-        <v>890</v>
+        <v>150</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T14">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="U14">
-        <v>11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V14">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="W14">
-        <v>2.2000000000000002</v>
+        <v>1250</v>
       </c>
       <c r="X14">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Y14">
-        <v>1250</v>
+        <v>11</v>
       </c>
       <c r="Z14">
-        <v>55</v>
-      </c>
-      <c r="AA14">
-        <v>11</v>
-      </c>
-      <c r="AB14">
         <v>4.7</v>
       </c>
-      <c r="AD14">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2296,52 +2161,43 @@
         <v>25</v>
       </c>
       <c r="O15">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="P15">
-        <v>1300</v>
+        <v>35</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>890</v>
       </c>
       <c r="R15">
-        <v>890</v>
+        <v>150</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T15">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="U15">
-        <v>11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V15">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="W15">
-        <v>2.2000000000000002</v>
+        <v>1250</v>
       </c>
       <c r="X15">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Y15">
-        <v>1250</v>
+        <v>11</v>
       </c>
       <c r="Z15">
-        <v>55</v>
-      </c>
-      <c r="AA15">
-        <v>11</v>
-      </c>
-      <c r="AB15">
         <v>4.7</v>
       </c>
-      <c r="AD15">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2385,52 +2241,43 @@
         <v>25</v>
       </c>
       <c r="O16">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="P16">
-        <v>1300</v>
+        <v>35</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>890</v>
       </c>
       <c r="R16">
-        <v>890</v>
+        <v>150</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T16">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="U16">
-        <v>11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V16">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="W16">
-        <v>2.2000000000000002</v>
+        <v>1250</v>
       </c>
       <c r="X16">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Y16">
-        <v>1250</v>
+        <v>11</v>
       </c>
       <c r="Z16">
-        <v>55</v>
-      </c>
-      <c r="AA16">
-        <v>11</v>
-      </c>
-      <c r="AB16">
         <v>4.7</v>
       </c>
-      <c r="AD16">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2474,52 +2321,43 @@
         <v>25</v>
       </c>
       <c r="O17">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="P17">
-        <v>1300</v>
+        <v>35</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>890</v>
       </c>
       <c r="R17">
-        <v>890</v>
+        <v>150</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T17">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="U17">
-        <v>11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V17">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="W17">
-        <v>2.2000000000000002</v>
+        <v>1250</v>
       </c>
       <c r="X17">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Y17">
-        <v>1250</v>
+        <v>11</v>
       </c>
       <c r="Z17">
-        <v>55</v>
-      </c>
-      <c r="AA17">
-        <v>11</v>
-      </c>
-      <c r="AB17">
         <v>4.7</v>
       </c>
-      <c r="AD17">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2563,52 +2401,43 @@
         <v>25</v>
       </c>
       <c r="O18">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="P18">
-        <v>1300</v>
+        <v>35</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>890</v>
       </c>
       <c r="R18">
-        <v>890</v>
+        <v>150</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T18">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="U18">
-        <v>11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V18">
-        <v>410</v>
+        <v>43</v>
       </c>
       <c r="W18">
-        <v>2.2000000000000002</v>
+        <v>1250</v>
       </c>
       <c r="X18">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Y18">
-        <v>1250</v>
+        <v>11</v>
       </c>
       <c r="Z18">
-        <v>55</v>
-      </c>
-      <c r="AA18">
-        <v>11</v>
-      </c>
-      <c r="AB18">
         <v>4.7</v>
       </c>
-      <c r="AD18">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2652,52 +2481,43 @@
         <v>30</v>
       </c>
       <c r="O19">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P19">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R19">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T19">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U19">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V19">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W19">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X19">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y19">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z19">
-        <v>55</v>
-      </c>
-      <c r="AA19">
-        <v>11</v>
-      </c>
-      <c r="AB19">
         <v>4.7</v>
       </c>
-      <c r="AD19">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2741,52 +2561,43 @@
         <v>30</v>
       </c>
       <c r="O20">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P20">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R20">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T20">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V20">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W20">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X20">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y20">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z20">
-        <v>55</v>
-      </c>
-      <c r="AA20">
-        <v>11</v>
-      </c>
-      <c r="AB20">
         <v>4.7</v>
       </c>
-      <c r="AD20">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2830,52 +2641,43 @@
         <v>30</v>
       </c>
       <c r="O21">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P21">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R21">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T21">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U21">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V21">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W21">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X21">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y21">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z21">
-        <v>55</v>
-      </c>
-      <c r="AA21">
-        <v>11</v>
-      </c>
-      <c r="AB21">
         <v>4.7</v>
       </c>
-      <c r="AD21">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -2919,52 +2721,43 @@
         <v>30</v>
       </c>
       <c r="O22">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P22">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R22">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T22">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U22">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V22">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W22">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X22">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y22">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z22">
-        <v>55</v>
-      </c>
-      <c r="AA22">
-        <v>11</v>
-      </c>
-      <c r="AB22">
         <v>4.7</v>
       </c>
-      <c r="AD22">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3008,52 +2801,43 @@
         <v>30</v>
       </c>
       <c r="O23">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P23">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R23">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T23">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U23">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V23">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W23">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X23">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y23">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z23">
-        <v>55</v>
-      </c>
-      <c r="AA23">
-        <v>11</v>
-      </c>
-      <c r="AB23">
         <v>4.7</v>
       </c>
-      <c r="AD23">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3097,52 +2881,43 @@
         <v>30</v>
       </c>
       <c r="O24">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P24">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R24">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U24">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V24">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W24">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X24">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y24">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z24">
-        <v>55</v>
-      </c>
-      <c r="AA24">
-        <v>11</v>
-      </c>
-      <c r="AB24">
         <v>4.7</v>
       </c>
-      <c r="AD24">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3186,52 +2961,43 @@
         <v>30</v>
       </c>
       <c r="O25">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P25">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R25">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T25">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U25">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V25">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W25">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X25">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y25">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z25">
-        <v>55</v>
-      </c>
-      <c r="AA25">
-        <v>11</v>
-      </c>
-      <c r="AB25">
         <v>4.7</v>
       </c>
-      <c r="AD25">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3275,52 +3041,43 @@
         <v>30</v>
       </c>
       <c r="O26">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P26">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R26">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T26">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V26">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W26">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X26">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y26">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z26">
-        <v>55</v>
-      </c>
-      <c r="AA26">
-        <v>11</v>
-      </c>
-      <c r="AB26">
         <v>4.7</v>
       </c>
-      <c r="AD26">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3364,52 +3121,43 @@
         <v>30</v>
       </c>
       <c r="O27">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P27">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R27">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T27">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U27">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V27">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W27">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X27">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y27">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z27">
-        <v>55</v>
-      </c>
-      <c r="AA27">
-        <v>11</v>
-      </c>
-      <c r="AB27">
         <v>4.7</v>
       </c>
-      <c r="AD27">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3453,52 +3201,43 @@
         <v>30</v>
       </c>
       <c r="O28">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P28">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R28">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T28">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U28">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V28">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W28">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X28">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y28">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z28">
-        <v>55</v>
-      </c>
-      <c r="AA28">
-        <v>11</v>
-      </c>
-      <c r="AB28">
         <v>4.7</v>
       </c>
-      <c r="AD28">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3542,52 +3281,43 @@
         <v>30</v>
       </c>
       <c r="O29">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P29">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R29">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T29">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U29">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V29">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W29">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X29">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y29">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z29">
-        <v>55</v>
-      </c>
-      <c r="AA29">
-        <v>11</v>
-      </c>
-      <c r="AB29">
         <v>4.7</v>
       </c>
-      <c r="AD29">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3631,52 +3361,43 @@
         <v>30</v>
       </c>
       <c r="O30">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P30">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R30">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T30">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="U30">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V30">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="W30">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X30">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y30">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z30">
-        <v>55</v>
-      </c>
-      <c r="AA30">
-        <v>11</v>
-      </c>
-      <c r="AB30">
         <v>4.7</v>
       </c>
-      <c r="AD30">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3720,52 +3441,43 @@
         <v>30</v>
       </c>
       <c r="O31">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P31">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R31">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T31">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U31">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V31">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W31">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X31">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y31">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z31">
-        <v>55</v>
-      </c>
-      <c r="AA31">
-        <v>11</v>
-      </c>
-      <c r="AB31">
         <v>4.7</v>
       </c>
-      <c r="AD31">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3809,52 +3521,43 @@
         <v>30</v>
       </c>
       <c r="O32">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P32">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R32">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T32">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U32">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V32">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W32">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X32">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y32">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z32">
-        <v>55</v>
-      </c>
-      <c r="AA32">
-        <v>11</v>
-      </c>
-      <c r="AB32">
         <v>4.7</v>
       </c>
-      <c r="AD32">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3898,52 +3601,43 @@
         <v>30</v>
       </c>
       <c r="O33">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P33">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R33">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T33">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U33">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V33">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W33">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X33">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y33">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z33">
-        <v>55</v>
-      </c>
-      <c r="AA33">
-        <v>11</v>
-      </c>
-      <c r="AB33">
         <v>4.7</v>
       </c>
-      <c r="AD33">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3987,52 +3681,43 @@
         <v>30</v>
       </c>
       <c r="O34">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P34">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R34">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T34">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U34">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V34">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W34">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X34">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y34">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z34">
-        <v>55</v>
-      </c>
-      <c r="AA34">
-        <v>11</v>
-      </c>
-      <c r="AB34">
         <v>4.7</v>
       </c>
-      <c r="AD34">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4076,52 +3761,43 @@
         <v>30</v>
       </c>
       <c r="O35">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P35">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q35">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R35">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T35">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U35">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V35">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W35">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X35">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y35">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z35">
-        <v>55</v>
-      </c>
-      <c r="AA35">
-        <v>11</v>
-      </c>
-      <c r="AB35">
         <v>4.7</v>
       </c>
-      <c r="AD35">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4165,52 +3841,43 @@
         <v>30</v>
       </c>
       <c r="O36">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P36">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R36">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T36">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V36">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W36">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X36">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y36">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z36">
-        <v>55</v>
-      </c>
-      <c r="AA36">
-        <v>11</v>
-      </c>
-      <c r="AB36">
         <v>4.7</v>
       </c>
-      <c r="AD36">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4254,52 +3921,43 @@
         <v>30</v>
       </c>
       <c r="O37">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P37">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q37">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R37">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T37">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U37">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V37">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W37">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X37">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y37">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z37">
-        <v>55</v>
-      </c>
-      <c r="AA37">
-        <v>11</v>
-      </c>
-      <c r="AB37">
         <v>4.7</v>
       </c>
-      <c r="AD37">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4343,52 +4001,43 @@
         <v>30</v>
       </c>
       <c r="O38">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P38">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q38">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R38">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T38">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U38">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V38">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W38">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X38">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y38">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z38">
-        <v>55</v>
-      </c>
-      <c r="AA38">
-        <v>11</v>
-      </c>
-      <c r="AB38">
         <v>4.7</v>
       </c>
-      <c r="AD38">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4432,52 +4081,43 @@
         <v>30</v>
       </c>
       <c r="O39">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P39">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R39">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T39">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U39">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V39">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W39">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X39">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y39">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z39">
-        <v>55</v>
-      </c>
-      <c r="AA39">
-        <v>11</v>
-      </c>
-      <c r="AB39">
         <v>4.7</v>
       </c>
-      <c r="AD39">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4521,52 +4161,43 @@
         <v>30</v>
       </c>
       <c r="O40">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P40">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q40">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R40">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T40">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U40">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V40">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W40">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X40">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y40">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z40">
-        <v>55</v>
-      </c>
-      <c r="AA40">
-        <v>11</v>
-      </c>
-      <c r="AB40">
         <v>4.7</v>
       </c>
-      <c r="AD40">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4610,52 +4241,43 @@
         <v>30</v>
       </c>
       <c r="O41">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P41">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R41">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T41">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U41">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V41">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W41">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X41">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y41">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z41">
-        <v>55</v>
-      </c>
-      <c r="AA41">
-        <v>11</v>
-      </c>
-      <c r="AB41">
         <v>4.7</v>
       </c>
-      <c r="AD41">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4699,52 +4321,43 @@
         <v>30</v>
       </c>
       <c r="O42">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P42">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q42">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R42">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T42">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U42">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V42">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W42">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X42">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y42">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z42">
-        <v>55</v>
-      </c>
-      <c r="AA42">
-        <v>11</v>
-      </c>
-      <c r="AB42">
         <v>4.7</v>
       </c>
-      <c r="AD42">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4788,52 +4401,43 @@
         <v>30</v>
       </c>
       <c r="O43">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P43">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q43">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R43">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T43">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U43">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V43">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W43">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X43">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y43">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z43">
-        <v>55</v>
-      </c>
-      <c r="AA43">
-        <v>11</v>
-      </c>
-      <c r="AB43">
         <v>4.7</v>
       </c>
-      <c r="AD43">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4877,52 +4481,43 @@
         <v>30</v>
       </c>
       <c r="O44">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P44">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R44">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T44">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U44">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V44">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W44">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X44">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y44">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z44">
-        <v>55</v>
-      </c>
-      <c r="AA44">
-        <v>11</v>
-      </c>
-      <c r="AB44">
         <v>4.7</v>
       </c>
-      <c r="AD44">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4966,52 +4561,43 @@
         <v>30</v>
       </c>
       <c r="O45">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P45">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q45">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R45">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T45">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U45">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V45">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W45">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X45">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y45">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z45">
-        <v>55</v>
-      </c>
-      <c r="AA45">
-        <v>11</v>
-      </c>
-      <c r="AB45">
         <v>4.7</v>
       </c>
-      <c r="AD45">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -5055,52 +4641,43 @@
         <v>30</v>
       </c>
       <c r="O46">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P46">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q46">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R46">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T46">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U46">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V46">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W46">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X46">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y46">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z46">
-        <v>55</v>
-      </c>
-      <c r="AA46">
-        <v>11</v>
-      </c>
-      <c r="AB46">
         <v>4.7</v>
       </c>
-      <c r="AD46">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -5144,52 +4721,43 @@
         <v>30</v>
       </c>
       <c r="O47">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P47">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q47">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R47">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T47">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U47">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V47">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W47">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X47">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y47">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z47">
-        <v>55</v>
-      </c>
-      <c r="AA47">
-        <v>11</v>
-      </c>
-      <c r="AB47">
         <v>4.7</v>
       </c>
-      <c r="AD47">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -5233,52 +4801,43 @@
         <v>30</v>
       </c>
       <c r="O48">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P48">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q48">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R48">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T48">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U48">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V48">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W48">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X48">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y48">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z48">
-        <v>55</v>
-      </c>
-      <c r="AA48">
-        <v>11</v>
-      </c>
-      <c r="AB48">
         <v>4.7</v>
       </c>
-      <c r="AD48">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -5322,52 +4881,43 @@
         <v>30</v>
       </c>
       <c r="O49">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P49">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q49">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R49">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T49">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U49">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V49">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W49">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y49">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z49">
-        <v>55</v>
-      </c>
-      <c r="AA49">
-        <v>11</v>
-      </c>
-      <c r="AB49">
         <v>4.7</v>
       </c>
-      <c r="AD49">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -5411,52 +4961,43 @@
         <v>30</v>
       </c>
       <c r="O50">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P50">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="Q50">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="R50">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T50">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U50">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V50">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W50">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X50">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y50">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z50">
-        <v>55</v>
-      </c>
-      <c r="AA50">
-        <v>11</v>
-      </c>
-      <c r="AB50">
         <v>4.7</v>
       </c>
-      <c r="AD50">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -5500,52 +5041,43 @@
         <v>30</v>
       </c>
       <c r="O51">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P51">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q51">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R51">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T51">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U51">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V51">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W51">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X51">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y51">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z51">
-        <v>55</v>
-      </c>
-      <c r="AA51">
-        <v>11</v>
-      </c>
-      <c r="AB51">
         <v>4.7</v>
       </c>
-      <c r="AD51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -5589,52 +5121,43 @@
         <v>30</v>
       </c>
       <c r="O52">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P52">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q52">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R52">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T52">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U52">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V52">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W52">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X52">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y52">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z52">
-        <v>55</v>
-      </c>
-      <c r="AA52">
-        <v>11</v>
-      </c>
-      <c r="AB52">
         <v>4.7</v>
       </c>
-      <c r="AD52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -5678,52 +5201,43 @@
         <v>30</v>
       </c>
       <c r="O53">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P53">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q53">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R53">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S53">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T53">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U53">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V53">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W53">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X53">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y53">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z53">
-        <v>55</v>
-      </c>
-      <c r="AA53">
-        <v>11</v>
-      </c>
-      <c r="AB53">
         <v>4.7</v>
       </c>
-      <c r="AD53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -5767,52 +5281,43 @@
         <v>30</v>
       </c>
       <c r="O54">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P54">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q54">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R54">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T54">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U54">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V54">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W54">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X54">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y54">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z54">
-        <v>55</v>
-      </c>
-      <c r="AA54">
-        <v>11</v>
-      </c>
-      <c r="AB54">
         <v>4.7</v>
       </c>
-      <c r="AD54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -5856,52 +5361,43 @@
         <v>30</v>
       </c>
       <c r="O55">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P55">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q55">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R55">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T55">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U55">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V55">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W55">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X55">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y55">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z55">
-        <v>55</v>
-      </c>
-      <c r="AA55">
-        <v>11</v>
-      </c>
-      <c r="AB55">
         <v>4.7</v>
       </c>
-      <c r="AD55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -5945,52 +5441,43 @@
         <v>30</v>
       </c>
       <c r="O56">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P56">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q56">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R56">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S56">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T56">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U56">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V56">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W56">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X56">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y56">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z56">
-        <v>55</v>
-      </c>
-      <c r="AA56">
-        <v>11</v>
-      </c>
-      <c r="AB56">
         <v>4.7</v>
       </c>
-      <c r="AD56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -6034,52 +5521,43 @@
         <v>30</v>
       </c>
       <c r="O57">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P57">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q57">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R57">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T57">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U57">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V57">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W57">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X57">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y57">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z57">
-        <v>55</v>
-      </c>
-      <c r="AA57">
-        <v>11</v>
-      </c>
-      <c r="AB57">
         <v>4.7</v>
       </c>
-      <c r="AD57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -6123,52 +5601,43 @@
         <v>30</v>
       </c>
       <c r="O58">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P58">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q58">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R58">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S58">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T58">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U58">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V58">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W58">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X58">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y58">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z58">
-        <v>55</v>
-      </c>
-      <c r="AA58">
-        <v>11</v>
-      </c>
-      <c r="AB58">
         <v>4.7</v>
       </c>
-      <c r="AD58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -6212,52 +5681,43 @@
         <v>30</v>
       </c>
       <c r="O59">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P59">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q59">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R59">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S59">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T59">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U59">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V59">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W59">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X59">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y59">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z59">
-        <v>55</v>
-      </c>
-      <c r="AA59">
-        <v>11</v>
-      </c>
-      <c r="AB59">
         <v>4.7</v>
       </c>
-      <c r="AD59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -6301,52 +5761,43 @@
         <v>30</v>
       </c>
       <c r="O60">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P60">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q60">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R60">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T60">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U60">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V60">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W60">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X60">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y60">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z60">
-        <v>55</v>
-      </c>
-      <c r="AA60">
-        <v>11</v>
-      </c>
-      <c r="AB60">
         <v>4.7</v>
       </c>
-      <c r="AD60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -6390,52 +5841,43 @@
         <v>30</v>
       </c>
       <c r="O61">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P61">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q61">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R61">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T61">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U61">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V61">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W61">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X61">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y61">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z61">
-        <v>55</v>
-      </c>
-      <c r="AA61">
-        <v>11</v>
-      </c>
-      <c r="AB61">
         <v>4.7</v>
       </c>
-      <c r="AD61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -6479,52 +5921,43 @@
         <v>30</v>
       </c>
       <c r="O62">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P62">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q62">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R62">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S62">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T62">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U62">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V62">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W62">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X62">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y62">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z62">
-        <v>55</v>
-      </c>
-      <c r="AA62">
-        <v>11</v>
-      </c>
-      <c r="AB62">
         <v>4.7</v>
       </c>
-      <c r="AD62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -6568,52 +6001,43 @@
         <v>30</v>
       </c>
       <c r="O63">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P63">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q63">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R63">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T63">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U63">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V63">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W63">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X63">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y63">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z63">
-        <v>55</v>
-      </c>
-      <c r="AA63">
-        <v>11</v>
-      </c>
-      <c r="AB63">
         <v>4.7</v>
       </c>
-      <c r="AD63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -6657,52 +6081,43 @@
         <v>30</v>
       </c>
       <c r="O64">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P64">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q64">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R64">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S64">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T64">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U64">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V64">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W64">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X64">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y64">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z64">
-        <v>55</v>
-      </c>
-      <c r="AA64">
-        <v>11</v>
-      </c>
-      <c r="AB64">
         <v>4.7</v>
       </c>
-      <c r="AD64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -6746,52 +6161,43 @@
         <v>30</v>
       </c>
       <c r="O65">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P65">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q65">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R65">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S65">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T65">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U65">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V65">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W65">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X65">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y65">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z65">
-        <v>55</v>
-      </c>
-      <c r="AA65">
-        <v>11</v>
-      </c>
-      <c r="AB65">
         <v>4.7</v>
       </c>
-      <c r="AD65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -6835,52 +6241,43 @@
         <v>30</v>
       </c>
       <c r="O66">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P66">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q66">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R66">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T66">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U66">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V66">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W66">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X66">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y66">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z66">
-        <v>55</v>
-      </c>
-      <c r="AA66">
-        <v>11</v>
-      </c>
-      <c r="AB66">
         <v>4.7</v>
       </c>
-      <c r="AD66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -6924,52 +6321,43 @@
         <v>30</v>
       </c>
       <c r="O67">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P67">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q67">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R67">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T67">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U67">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V67">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W67">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X67">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y67">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z67">
-        <v>55</v>
-      </c>
-      <c r="AA67">
-        <v>11</v>
-      </c>
-      <c r="AB67">
         <v>4.7</v>
       </c>
-      <c r="AD67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -7013,52 +6401,43 @@
         <v>30</v>
       </c>
       <c r="O68">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P68">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q68">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R68">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S68">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T68">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U68">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V68">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W68">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X68">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y68">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z68">
-        <v>55</v>
-      </c>
-      <c r="AA68">
-        <v>11</v>
-      </c>
-      <c r="AB68">
         <v>4.7</v>
       </c>
-      <c r="AD68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -7102,52 +6481,43 @@
         <v>30</v>
       </c>
       <c r="O69">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P69">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q69">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R69">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T69">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U69">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V69">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W69">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X69">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y69">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z69">
-        <v>55</v>
-      </c>
-      <c r="AA69">
-        <v>11</v>
-      </c>
-      <c r="AB69">
         <v>4.7</v>
       </c>
-      <c r="AD69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -7191,52 +6561,43 @@
         <v>30</v>
       </c>
       <c r="O70">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="P70">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q70">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R70">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T70">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U70">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V70">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W70">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X70">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y70">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z70">
-        <v>55</v>
-      </c>
-      <c r="AA70">
-        <v>11</v>
-      </c>
-      <c r="AB70">
         <v>4.7</v>
       </c>
-      <c r="AD70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -7280,49 +6641,40 @@
         <v>30</v>
       </c>
       <c r="O71">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="P71">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="R71">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="S71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T71">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="U71">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V71">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="W71">
-        <v>2.2999999999999998</v>
+        <v>700</v>
       </c>
       <c r="X71">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y71">
-        <v>700</v>
+        <v>11</v>
       </c>
       <c r="Z71">
-        <v>55</v>
-      </c>
-      <c r="AA71">
-        <v>11</v>
-      </c>
-      <c r="AB71">
         <v>4.7</v>
-      </c>
-      <c r="AD71">
-        <v>1.8</v>
       </c>
     </row>
   </sheetData>
